--- a/마방진설명.xlsx
+++ b/마방진설명.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzc01-jipark/Source/Sweetguy0215/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901030EC-1E4F-0643-9A32-1E4BDDA97F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25667358-24DE-3B48-B667-8105872D521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-62480" yWindow="220" windowWidth="28300" windowHeight="17440" xr2:uid="{E34BE891-FDB5-644D-8043-C6D7963877F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -262,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,374 +637,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC9E2A5-749D-1E4D-903B-40DF1A3C6F7B}">
-  <dimension ref="B4:L24"/>
+  <dimension ref="B4:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="11" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="12" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12">
-      <c r="C4" s="1"/>
+    <row r="4" spans="4:13">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" ht="19" thickBot="1">
-      <c r="C5" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="4:13" ht="19" thickBot="1">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="C6" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="4:13">
       <c r="D6" s="1"/>
-      <c r="E6" s="4">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>7</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="C7" s="1"/>
-      <c r="D7" s="7">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="1"/>
+      <c r="E7" s="7">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2">
+      <c r="F7" s="8"/>
+      <c r="G7" s="2">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>8</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10">
+      <c r="J7" s="9"/>
+      <c r="K7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="C8" s="2">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="2">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>13</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="9">
+      <c r="I8" s="2"/>
+      <c r="J8" s="9">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="2">
+      <c r="K8" s="10"/>
+      <c r="L8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="C9" s="1"/>
-      <c r="D9" s="7">
+    <row r="9" spans="4:13">
+      <c r="D9" s="1"/>
+      <c r="E9" s="7">
         <v>22</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2">
+      <c r="F9" s="8"/>
+      <c r="G9" s="2">
         <v>18</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <v>14</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <v>10</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="19" thickBot="1">
-      <c r="C10" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="4:13" ht="19" thickBot="1">
       <c r="D10" s="1"/>
-      <c r="E10" s="11">
+      <c r="E10" s="1"/>
+      <c r="F10" s="11">
         <v>23</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <v>19</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13">
+      <c r="I10" s="12"/>
+      <c r="J10" s="13">
         <v>15</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="C11" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="4:13">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14">
+      <c r="F11" s="1"/>
+      <c r="G11" s="14">
         <v>24</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
         <v>20</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="C12" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="4:13">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="2">
         <v>25</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="C15" s="15">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="D15" s="15">
         <v>-2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="E15" s="15">
         <v>-1</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
+      <c r="H15" s="15">
         <v>2</v>
       </c>
-      <c r="H15" s="15">
+      <c r="I15" s="15">
         <v>3</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J15" s="15">
         <v>4</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K15" s="15">
         <v>5</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L15" s="15">
         <v>6</v>
       </c>
-      <c r="L15" s="15">
+      <c r="M15" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16">
-        <f>--2</f>
+    <row r="16" spans="4:13">
+      <c r="D16" s="15">
+        <f>MOD((D15+5),5)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:L16" si="0">MOD((E15+5),5)</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2">
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" ht="19" thickBot="1">
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <f>MOD((B17+5),5)</f>
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>2</v>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2">
+        <v>1</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" ref="C18:C25" si="1">MOD((B18+5),5)</f>
+        <v>4</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="4">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>7</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6">
-        <v>3</v>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>2</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="7">
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7">
         <v>16</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2">
+      <c r="F20" s="8"/>
+      <c r="G20" s="2">
         <v>12</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
         <v>8</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
+      <c r="J20" s="9"/>
+      <c r="K20" s="10">
         <v>4</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
+      <c r="E21" s="7"/>
+      <c r="F21" s="8">
         <v>17</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="9">
-        <v>9</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="7">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2">
-        <v>18</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9">
+        <v>9</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="2">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
         <v>14</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10">
+      <c r="J22" s="9"/>
+      <c r="K22" s="10">
         <v>10</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" ht="19" thickBot="1">
-      <c r="B22">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" ht="19" thickBot="1">
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="11">
-        <v>23</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
-        <v>19</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="14">
-        <v>24</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="11">
+        <v>23</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <v>19</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13">
+        <v>15</v>
+      </c>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="14">
+        <v>24</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
+        <v>20</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
